--- a/FindingBrokenImages/TestInput/input.xlsx
+++ b/FindingBrokenImages/TestInput/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyanarayan\source\repos\FindingBrokenImages\FindingBrokenImages\TestInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\source\git\FindBrokenImages\FindingBrokenImages\TestInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F8937-0334-4B1F-BE7A-B02D7CE40AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3CCDF5-E3AA-4C61-99A1-AE56F84212FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,37 +30,37 @@
     <t>URL inputs</t>
   </si>
   <si>
-    <t>http://192.168.100.119:9012/</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/football</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/kabaddi</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/series/indian-premier-league/auction</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/scores-fixtures</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/videos</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/news</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/features</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/opinions</t>
-  </si>
-  <si>
-    <t>http://192.168.100.119:9012/cricket/podcasts</t>
+    <t>https://beta-cricket-yahoo.sportz.io/</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/news</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/photos</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/videos</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/fixtures-results</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/series</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/archives</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/teams</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/rankings</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/players</t>
+  </si>
+  <si>
+    <t>https://beta-cricket-yahoo.sportz.io/fantasy</t>
   </si>
 </sst>
 </file>
@@ -395,85 +395,84 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" customWidth="1"/>
+    <col min="1" max="1" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F2FE69D6-BE19-4550-8AF5-5E52326E05A8}"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="http://192.168.100.119:9012/" xr:uid="{DD571A6E-0AC9-43F1-9FC1-A41E728590C0}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{C30CAEC8-87D0-47E3-82C4-2C088BE01EC6}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{4B2BE90D-A6A7-4DBA-99D5-5CD1365AEEBE}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{C80E759D-A296-482D-A95B-3291AA7A566E}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{FA65F8C0-ED81-40EB-A7DE-CBDE4D3B82A1}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{426F4C6C-EEA8-4C6B-9F80-8468A79AD97F}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{2E724FB9-DDE0-424E-A235-3F684553F83E}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{0F6645A9-93B5-40EF-B0C8-43D3EAF0042C}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{745817C3-D3ED-4F2A-A23B-942385FA6279}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{C250B157-AA67-445B-8F25-D5090273833D}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{822C47AE-1415-4D29-A42B-D0F4CF66FCDA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6B0C3248-2504-462F-B9D2-E47C7F265DDC}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{97286742-3F61-4000-B119-0D4FA96FF575}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{47CF51B2-C8EC-4F98-BFB0-F795658A1AD9}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{A56106E5-0A60-4F97-A26D-B4829B13DA08}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{F4FADFCF-762A-4AD3-9765-05791898FA2C}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{5C7DB5E4-0B66-46A6-B6E1-F91ABB678B18}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{2B244864-818C-40E8-BEA3-4BCC7794B27C}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{FF99E44B-7846-4BD3-AEE3-DE0575217488}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{AFE8E096-5D87-41DD-988A-3F065C4F047A}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{E191271E-30F3-4180-8F09-2B595D5C894C}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{B5E513A2-3663-46AA-9931-453476B0F48A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
